--- a/Data/Generators_2040.xlsx
+++ b/Data/Generators_2040.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Bus</t>
   </si>
@@ -101,6 +101,27 @@
   </si>
   <si>
     <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>BAT1</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>BAT2</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>BAT3</t>
   </si>
 </sst>
 </file>
@@ -166,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,6 +202,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,6 +586,75 @@
         <v>835.70100000000002</v>
       </c>
       <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>50</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8">
+        <v>18000</v>
+      </c>
+      <c r="E6" s="6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>3</v>
       </c>
     </row>

--- a/Data/Generators_2040.xlsx
+++ b/Data/Generators_2040.xlsx
@@ -109,9 +109,6 @@
     <t>BAT1</t>
   </si>
   <si>
-    <t>Battery</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>BAT3</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8">
         <v>8000</v>
@@ -614,13 +614,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8">
         <v>18000</v>
@@ -637,13 +637,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="8">
         <v>15000</v>
